--- a/me/1.training_sass/08-mixin.xlsx
+++ b/me/1.training_sass/08-mixin.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\1.training_sass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D04142B-A975-4C33-833E-6904F2AF6A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2C948F-662B-448E-8183-B6FDFF6CCA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Argument" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="108">
   <si>
     <r>
       <t xml:space="preserve">①Từ khóa </t>
@@ -524,6 +525,247 @@
   </si>
   <si>
     <t>⑤Từ mixin có thể kế thừa từ các mixin khác vào</t>
+  </si>
+  <si>
+    <t>02-Argument</t>
+  </si>
+  <si>
+    <t>02-arguments-01.scss</t>
+  </si>
+  <si>
+    <t>@mixin sexy-border($color, $width, $style: solid) {</t>
+  </si>
+  <si>
+    <t>    border: {</t>
+  </si>
+  <si>
+    <t>        color: $color;</t>
+  </si>
+  <si>
+    <t>        width: $width;</t>
+  </si>
+  <si>
+    <t>        style: dashed;</t>
+  </si>
+  <si>
+    <t>mixin dùng tham số</t>
+  </si>
+  <si>
+    <t>02-arguments-01.css</t>
+  </si>
+  <si>
+    <t>p {</t>
+  </si>
+  <si>
+    <t>  border-color: blue;</t>
+  </si>
+  <si>
+    <t>  border-width: 1in;</t>
+  </si>
+  <si>
+    <t>  border-style: dashed; }</t>
+  </si>
+  <si>
+    <t>  border-color: red;</t>
+  </si>
+  <si>
+    <t>  border-width: 2px;</t>
+  </si>
+  <si>
+    <t>h5 {</t>
+  </si>
+  <si>
+    <t>  border-color: yellow;</t>
+  </si>
+  <si>
+    <t>  border-width: 5px;</t>
+  </si>
+  <si>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sexy-border($color, $width: 5px) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p { @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sexy-border(blue, 1in); }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h3 { @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sexy-border(red, 2px); }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>h5 { @</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sexy-border(yellow); }</t>
+    </r>
+  </si>
+  <si>
+    <t>function thì trả về 1 giá trị cụ thể nào đó</t>
+  </si>
+  <si>
+    <t>extend thì chỉ extend được cùng giá trị mà không thể thay đổi được các giá trị bên trong</t>
+  </si>
+  <si>
+    <t>      color: $color;</t>
+  </si>
+  <si>
+    <t>      width: $width;</t>
+  </si>
+  <si>
+    <t>      style: $style;</t>
+  </si>
+  <si>
+    <t>    @include sexy-border(blue, 5px, dashed);</t>
+  </si>
+  <si>
+    <t>    @include sexy-border(red, 3px);</t>
+  </si>
+  <si>
+    <t>  border-width: 3px;</t>
+  </si>
+  <si>
+    <t>  border-style: solid; }</t>
+  </si>
+  <si>
+    <t>02-arguments-02.scss</t>
+  </si>
+  <si>
+    <t>@mixin colors($text, $background, $border) {</t>
+  </si>
+  <si>
+    <t>    color: $text;</t>
+  </si>
+  <si>
+    <t>    background-color: $background;</t>
+  </si>
+  <si>
+    <t>    border-color: $border;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>$values: #ff0000, #00ff00, #0000ff;</t>
+  </si>
+  <si>
+    <t>.primary {</t>
+  </si>
+  <si>
+    <t>    @include colors($values...);</t>
+  </si>
+  <si>
+    <t>$value-map: (text: #00ff00, background: #0000ff, border: #ff0000);</t>
+  </si>
+  <si>
+    <t>.secondary {</t>
+  </si>
+  <si>
+    <t>    @include colors($value-map...);</t>
+  </si>
+  <si>
+    <t>02-arguments-02.css</t>
+  </si>
+  <si>
+    <t>  background-color: #00ff00;</t>
+  </si>
+  <si>
+    <t>  border-color: #0000ff; }</t>
+  </si>
+  <si>
+    <t>  color: #00ff00;</t>
+  </si>
+  <si>
+    <t>  background-color: #0000ff;</t>
+  </si>
+  <si>
+    <t>  border-color: #ff0000; }</t>
+  </si>
+  <si>
+    <t>$values là 1 data type thuộc về kiểu list</t>
+  </si>
+  <si>
+    <t>$value-map là data type thuộc về kiểu map</t>
   </si>
 </sst>
 </file>
@@ -546,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -668,6 +916,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,12 +994,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -766,8 +1016,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="676275" y="4524375"/>
-          <a:ext cx="428625" cy="2971800"/>
+          <a:off x="676275" y="3819525"/>
+          <a:ext cx="114300" cy="3867150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -796,13 +1046,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -818,9 +1068,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1133475" y="4962525"/>
-          <a:ext cx="66675" cy="3276600"/>
+        <a:xfrm>
+          <a:off x="857250" y="3790950"/>
+          <a:ext cx="276225" cy="4638675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -927,6 +1177,594 @@
         <a:xfrm>
           <a:off x="1295400" y="20945475"/>
           <a:ext cx="238125" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42F7956F-2A3A-B068-6A7B-23395AF6E256}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="3581400"/>
+          <a:ext cx="238125" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D009DD4A-FE5B-A44A-0E19-0743003996EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="3600450"/>
+          <a:ext cx="142875" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991A96C7-25C4-D7CF-5E37-8EF37575AD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="2609850"/>
+          <a:ext cx="533400" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0717B338-03F0-FE49-92A7-E3E7EE20DD84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="2819400"/>
+          <a:ext cx="361950" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927B1B34-3A0A-8D5E-033A-A07B019FC9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="4181475"/>
+          <a:ext cx="28575" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD62743E-7AAC-3A77-0F77-3FF34F39F90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="2638425"/>
+          <a:ext cx="476250" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308E54BE-1AF6-0220-8FE5-8DD0D94807A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="2619375"/>
+          <a:ext cx="390525" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2DDEFE-E4D2-F9FE-5DC9-6B3F07384E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="22383750"/>
+          <a:ext cx="3467100" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE379B0-0E56-C245-7E49-EA5EC6AA5253}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="22440900"/>
+          <a:ext cx="866775" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5B24B3-DE26-59C1-97A2-BC6417F645A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="23345775"/>
+          <a:ext cx="1619250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9011EFA5-5C77-4578-4E58-E998FFEA1741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="23421975"/>
+          <a:ext cx="590550" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1220,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K136" sqref="K136"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97:M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,4 +3025,1119 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E95C325-972E-4A3B-B12B-A57FA168C9F2}">
+  <dimension ref="A2:M146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="N130" sqref="N130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="G12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="G34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="G62" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="E84" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="G86" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="E106" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="6"/>
+      <c r="I106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="G108" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="6"/>
+      <c r="K118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="6"/>
+      <c r="K123" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="9"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="E132" t="s">
+        <v>57</v>
+      </c>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="G134" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G135" s="8"/>
+      <c r="H135" s="9"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C140" s="5"/>
+      <c r="D140" s="5"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C141" s="5"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>